--- a/사운드/DB_Sound.xlsx
+++ b/사운드/DB_Sound.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\벽돌깨기\사운드\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04043422-4F16-42C9-945C-3C722477FF30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447DD399-93DE-4979-802A-44786B0CA49D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A043222-6018-4DFB-853F-0B10F861A84B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="25">
   <si>
     <t>구분</t>
   </si>
@@ -49,10 +49,6 @@
   </si>
   <si>
     <t>Effect Sound</t>
-  </si>
-  <si>
-    <t>공 발사 시, 출력되는 소리.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>게임 전체에 걸쳐 진행되는 배경 음악.
@@ -60,10 +56,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>벽돌이 파괴될 때와 공이 벽에 부딪힐 시, 출력되는 소리.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Goods_Sound</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -92,10 +84,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Ball_Shot_Sound</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Break&amp;Wall_Sound</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -129,6 +117,14 @@
   </si>
   <si>
     <t>화면 이동 시, 출력되는 소리.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽돌이 파괴될 때와 공이 벽에 부딪힐 때, 출력되는 소리.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect Sound</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -262,13 +258,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,17 +303,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -299,46 +372,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF26592-B598-4BFF-ABED-21AB13F6D196}">
   <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -691,65 +725,65 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="19">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
@@ -757,104 +791,97 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>12</v>
+      <c r="C8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="C11" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="12" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="13">
-        <v>10</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>25</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="21"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="10"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="23"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="22"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/사운드/DB_Sound.xlsx
+++ b/사운드/DB_Sound.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\벽돌깨기\사운드\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447DD399-93DE-4979-802A-44786B0CA49D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8175E42-144A-47FA-B67F-3CEF12F88DD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A043222-6018-4DFB-853F-0B10F861A84B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>구분</t>
   </si>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>재화가 필드에 등장 할 때와 재화를 획득 했을 때, 출력되는 소리.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>벽돌이 인벤토리에 등장 할 때 출력되는 소리.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -76,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Star_Sound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BGM_Break_Sound</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -100,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>챌린지 메인 화면 별 획득 시, 출력되는 소리.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Get_Ball_Sound</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,16 +104,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>화면 이동 시, 출력되는 소리.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>벽돌이 파괴될 때와 공이 벽에 부딪힐 때, 출력되는 소리.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Effect Sound</t>
+    <t>화면 넘길 때, 출력되는 소리.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮은 느낌으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화가 필드에 등장 할 때, 출력되는 소리.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -273,14 +265,14 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -290,7 +282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,15 +292,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -330,9 +313,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -351,29 +331,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF26592-B598-4BFF-ABED-21AB13F6D196}">
-  <dimension ref="A2:D17"/>
+  <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -701,9 +666,10 @@
     <col min="2" max="2" width="18.296875" customWidth="1"/>
     <col min="3" max="3" width="20.796875" customWidth="1"/>
     <col min="4" max="4" width="89" customWidth="1"/>
+    <col min="5" max="5" width="21.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,167 +683,165 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D6" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="19">
-        <v>3</v>
-      </c>
-      <c r="B5" s="20" t="s">
+      <c r="D8" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="17">
-        <v>4</v>
-      </c>
-      <c r="B6" s="22" t="s">
+      <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="24" t="s">
+      <c r="C10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="24" t="s">
+      <c r="D10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="6"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="15"/>
+    </row>
+    <row r="11" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="16"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="15"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/사운드/DB_Sound.xlsx
+++ b/사운드/DB_Sound.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\GitHub\Dispose_Break\사운드\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8175E42-144A-47FA-B67F-3CEF12F88DD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE018A8-7FA5-4635-B5AC-ECA51C03CE5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A043222-6018-4DFB-853F-0B10F861A84B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>구분</t>
   </si>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>챌린지 실패 시, 출력되는 소리.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BGM_Break_Sound</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -84,10 +80,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Game_Over&amp;Clear_Sound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fail_Sound</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,12 +104,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낮은 느낌으로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>재화가 필드에 등장 할 때, 출력되는 소리.</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear_Sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챌린지 실패와, 무한 모드 게임 오버 시, 출력되는 소리.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -654,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF26592-B598-4BFF-ABED-21AB13F6D196}">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -669,7 +665,7 @@
     <col min="5" max="5" width="21.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -691,13 +687,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -705,13 +701,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -719,13 +715,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -733,13 +729,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -750,10 +746,10 @@
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15">
         <v>6</v>
       </c>
@@ -761,13 +757,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
         <v>7</v>
       </c>
@@ -775,63 +771,57 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="16"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="9"/>
